--- a/distribucion.xlsx
+++ b/distribucion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesli\OneDrive\Escritorio\IA\IA_imageRecognition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1822d3d40a7589dd/Escritorio/IA/IA_imageRecognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9D829D-F9B3-42DE-A76F-81697CB71856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{FF9D829D-F9B3-42DE-A76F-81697CB71856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{567F6B4B-9C2C-41BA-B48F-993BCE60C755}"/>
   <bookViews>
-    <workbookView xWindow="10550" yWindow="0" windowWidth="8740" windowHeight="10170" xr2:uid="{E7B1D1B6-3C07-43C7-A73D-EC733EDE4AB9}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{E7B1D1B6-3C07-43C7-A73D-EC733EDE4AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Abra</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>total</t>
-  </si>
-  <si>
-    <t>Quitar</t>
   </si>
 </sst>
 </file>
@@ -109,7 +106,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -450,15 +457,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2AB3A1-83FF-4F0C-BA57-2E4DACCC533D}">
-  <dimension ref="B1:G12"/>
+  <dimension ref="B1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>8</v>
       </c>
@@ -468,11 +475,8 @@
       <c r="E1" s="2">
         <v>0.2</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -487,12 +491,8 @@
         <f>C2-D2</f>
         <v>80.799999999999955</v>
       </c>
-      <c r="G2">
-        <f>C2-C12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -507,12 +507,8 @@
         <f t="shared" ref="E3:E9" si="1">C3-D3</f>
         <v>80.799999999999955</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G9" si="2">C3-C13</f>
-        <v>404</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -527,12 +523,8 @@
         <f t="shared" si="1"/>
         <v>80.799999999999955</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
-        <v>404</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -547,12 +539,8 @@
         <f t="shared" si="1"/>
         <v>80.799999999999955</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>404</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -567,12 +555,8 @@
         <f t="shared" si="1"/>
         <v>80.799999999999955</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>404</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -587,12 +571,8 @@
         <f t="shared" si="1"/>
         <v>80.799999999999955</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>404</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -607,12 +587,8 @@
         <f t="shared" si="1"/>
         <v>80.799999999999955</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>404</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -627,21 +603,22 @@
         <f t="shared" si="1"/>
         <v>80.799999999999955</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>404</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C12">
-        <f>MIN(C2:C9)</f>
-        <v>404</v>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <f>SUM(C2:C9)</f>
+        <v>3232</v>
+      </c>
+      <c r="D11" s="1">
+        <f>C11-E11</f>
+        <v>2584</v>
+      </c>
+      <c r="E11" s="1">
+        <f>81*8</f>
+        <v>648</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C12">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/distribucion.xlsx
+++ b/distribucion.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1822d3d40a7589dd/Escritorio/IA/IA_imageRecognition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesli\OneDrive\Escritorio\IA\IA_imageRecognition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{FF9D829D-F9B3-42DE-A76F-81697CB71856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{567F6B4B-9C2C-41BA-B48F-993BCE60C755}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0049E83-5F47-423C-A025-5E7F58DC0EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{E7B1D1B6-3C07-43C7-A73D-EC733EDE4AB9}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{E7B1D1B6-3C07-43C7-A73D-EC733EDE4AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Abra</t>
   </si>
@@ -63,19 +64,190 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>model = Sequential([
+    Conv2D(10, (3,3), activation='relu', input_shape=(150, 150, 3)),
+    MaxPooling2D(2,2),
+    Dense(128, activation='relu'),
+    Flatten(),
+    Dense(8, activation='softmax')
+])</t>
+  </si>
+  <si>
+    <t>Arq</t>
+  </si>
+  <si>
+    <t>Epoch</t>
+  </si>
+  <si>
+    <t>acc_i</t>
+  </si>
+  <si>
+    <t>acc_f</t>
+  </si>
+  <si>
+    <t>loss_i</t>
+  </si>
+  <si>
+    <t>loss_f</t>
+  </si>
+  <si>
+    <t>test_acc</t>
+  </si>
+  <si>
+    <t>test_loss</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>history = model.fit(
+						train_generator,
+						epochs = 10,
+						callbacks = [checkpoint], 
+						validation_data=test_generator)</t>
+  </si>
+  <si>
+    <t>history = model.fit(
+						train_generator,
+						epochs = 10,
+						callbacks = [checkpoint], 
+						)</t>
+  </si>
+  <si>
+    <t>model = Sequential([
+    Conv2D(10, (3,3), activation='relu', input_shape=(150, 150, 3)),
+    MaxPooling2D(2,2),
+    Dense(128, activation='relu'),
+    Dropout(0.3),
+    Flatten(),
+    Dense(8, activation='softmax')
+])</t>
+  </si>
+  <si>
+    <t>0,7718</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>history = model.fit(
+						train_generator,
+						epochs = 15,
+						callbacks = [checkpoint], 
+						validation_data=validation_generator)</t>
+  </si>
+  <si>
+    <t>def build_resnet(input_shape=(120, 120, 3), num_classes=8):
+    inputs = tf.keras.Input(shape=input_shape)
+    x = layers.Conv2D(64, kernel_size=3, strides=1, padding='same', use_bias=False)(inputs)
+    x = layers.BatchNormalization()(x)
+    x = layers.ReLU()(x)
+    x = make_layer(64, 2, stride=1)(x)
+    x = make_layer(128, 2, stride=2)(x)
+    x = make_layer(192, 2, stride=2)(x)
+    x = make_layer(256, 2, stride=2)(x)
+    x = layers.GlobalAveragePooling2D()(x)
+    x = layers.Dropout(0.3)(x)
+    outputs = layers.Dense(num_classes, activation='softmax')(x)
+    return tf.keras.Model(inputs=inputs, outputs=outputs)</t>
+  </si>
+  <si>
+    <t>history = model.fit(
+    train_generator,
+    epochs=15,
+    validation_data=validation_generator,
+    callbacks=[checkpoint, test_callback]
+)</t>
+  </si>
+  <si>
+    <t>history = model.fit(
+    train_generator,
+    epochs=20,
+    validation_data=validation_generator,
+    callbacks=[checkpoint, test_callback]
+)</t>
+  </si>
+  <si>
+    <t>def make_layer(filters, blocks, stride):
+    layers_list = []
+    layers_list.append(BasicBlock(filters, stride=stride, downsample=(stride != 1)))
+    for _ in range(1, blocks):
+        layers_list.append(BasicBlock(filters))
+    return tf.keras.Sequential(layers_list)
+def build_resnet(input_shape=(120, 120, 3), num_classes=8):
+    inputs = tf.keras.Input(shape=input_shape)
+    x = layers.Conv2D(64, kernel_size=3, strides=1, padding='same', use_bias=False)(inputs)
+    x = layers.BatchNormalization()(x)
+    x = layers.ReLU()(x)
+    x = make_layer(64, 2, stride=1)(x)
+    x = make_layer(128, 2, stride=2)(x)
+    x = make_layer(192, 2, stride=2)(x)
+    x = make_layer(256, 2, stride=2)(x)
+    x = layers.GlobalAveragePooling2D()(x)
+    x = layers.Dropout(0.3)(x)
+    outputs = layers.Dense(num_classes, activation='softmax')(x)
+    return tf.keras.Model(inputs=inputs, outputs=outputs)</t>
+  </si>
+  <si>
+    <t>model.fit(
+    train_generator,
+    epochs=30,
+    validation_data=validation_generator,
+    callbacks=[checkpoint, metrics_callback]
+)</t>
+  </si>
+  <si>
+    <t>model = Sequential([
+    Conv2D(10, (3,3), activation='relu', input_shape=(120, 120, 3)),
+    MaxPooling2D(2,2),
+    Dense(128, activation='relu'),
+    Dropout(0.3),
+    Dense(128, activation='relu'),
+    Dropout(0.1),
+    Flatten(),
+    Dense(8, activation='softmax')
+])</t>
+  </si>
+  <si>
+    <t>model.fit(
+    train_generator,
+    epochs=30,
+    validation_data=validation_generator,
+    callbacks=[checkpoint, test_callback]
+)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,36 +270,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -138,6 +299,363 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>384850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>24954</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54336E42-D05B-2426-8478-43022B5B770A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10737274" y="1654848"/>
+          <a:ext cx="1905000" cy="1497000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>596515</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>35717</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941FF039-25A7-69BF-009B-1EABF30B4D9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13017500" y="1654848"/>
+          <a:ext cx="2116667" cy="1507763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>484606</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1637840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4A3C0D-AACF-C5EC-AEEF-71673402B5EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10811712" y="3124868"/>
+          <a:ext cx="4328026" cy="1637840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>654679</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3001818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE5B963-714C-522D-BB14-04DC24B0921E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12194887" y="6451023"/>
+          <a:ext cx="7538656" cy="3001818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>298824</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190247</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9294E0A-DC1B-15EF-D61F-5BFA7E5F0B0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20282647" y="6387353"/>
+          <a:ext cx="4034118" cy="3439953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>297940</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2838823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAAD855F-1DD1-D2E3-E16D-BD0354CDF27C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12812060" y="9637059"/>
+          <a:ext cx="7021468" cy="2838823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>112060</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>551164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE73E7CB-20DF-8AA7-6EBC-B696DF42D9AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20282648" y="9637059"/>
+          <a:ext cx="4594412" cy="3688811"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95491</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99219</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE8E2F55-808B-1BE8-EB2C-EC0F8294ABBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13612814" y="17442656"/>
+          <a:ext cx="3865802" cy="3194844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,163 +975,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2AB3A1-83FF-4F0C-BA57-2E4DACCC533D}">
-  <dimension ref="B1:E11"/>
+  <dimension ref="B1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="E1" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>404</v>
+      <c r="C2" s="1">
+        <f>SUM(D2:F2)</f>
+        <v>444</v>
       </c>
       <c r="D2" s="1">
-        <f>C2*0.8</f>
-        <v>323.20000000000005</v>
-      </c>
-      <c r="E2" s="1">
-        <f>C2-D2</f>
-        <v>80.799999999999955</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>404</v>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C9" si="0">SUM(D3:F3)</f>
+        <v>444</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D9" si="0">C3*0.8</f>
-        <v>323.20000000000005</v>
-      </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E9" si="1">C3-D3</f>
-        <v>80.799999999999955</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>404</v>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>444</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>323.20000000000005</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="1"/>
-        <v>80.799999999999955</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>404</v>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>444</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>323.20000000000005</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>80.799999999999955</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>404</v>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>444</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>323.20000000000005</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>80.799999999999955</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>404</v>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>444</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>323.20000000000005</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>80.799999999999955</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>404</v>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>444</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>323.20000000000005</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>80.799999999999955</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
-        <v>404</v>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>444</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>323.20000000000005</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>80.799999999999955</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C11">
         <f>SUM(C2:C9)</f>
-        <v>3232</v>
+        <v>3552</v>
       </c>
       <c r="D11" s="1">
-        <f>C11-E11</f>
+        <f>SUM(D2:D9)</f>
         <v>2584</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
+        <f>SUM(E2:E9)</f>
+        <v>320</v>
+      </c>
+      <c r="F11" s="1">
         <f>81*8</f>
         <v>648</v>
       </c>
@@ -621,4 +1162,267 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA6F0CB-0258-4E92-9893-13C9C8E8309D}">
+  <dimension ref="B1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="32" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="50.54296875" customWidth="1"/>
+    <col min="3" max="3" width="36.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="116" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>0.26369999999999999</v>
+      </c>
+      <c r="F2">
+        <v>5.2781000000000002</v>
+      </c>
+      <c r="G2">
+        <v>0.71740000000000004</v>
+      </c>
+      <c r="H2">
+        <v>0.872</v>
+      </c>
+      <c r="I2">
+        <v>0.68210000000000004</v>
+      </c>
+      <c r="J2">
+        <v>0.98260000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="116" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>0.69920000000000004</v>
+      </c>
+      <c r="F3">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="G3">
+        <v>0.76119999999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.75649999999999995</v>
+      </c>
+      <c r="I3">
+        <v>0.62719999999999998</v>
+      </c>
+      <c r="J3" s="4">
+        <v>229.8861</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>0.34920000000000001</v>
+      </c>
+      <c r="F4">
+        <v>4.6738</v>
+      </c>
+      <c r="G4">
+        <v>0.73709999999999998</v>
+      </c>
+      <c r="H4">
+        <v>0.84909999999999997</v>
+      </c>
+      <c r="I4">
+        <v>0.745</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="242.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>0.3075</v>
+      </c>
+      <c r="F6">
+        <v>2.1951000000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.71360000000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="I6">
+        <v>0.61719999999999997</v>
+      </c>
+      <c r="J6">
+        <v>1.2492000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>0.30759999999999998</v>
+      </c>
+      <c r="F8">
+        <v>2.2414999999999998</v>
+      </c>
+      <c r="G8">
+        <v>0.78820000000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.71109999999999995</v>
+      </c>
+      <c r="I8">
+        <v>0.7762</v>
+      </c>
+      <c r="J8">
+        <v>0.67390000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="362.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>0.30759999999999998</v>
+      </c>
+      <c r="F9">
+        <v>2.1604999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>0.1678</v>
+      </c>
+      <c r="F10">
+        <v>2.3302</v>
+      </c>
+      <c r="G10">
+        <v>0.84109999999999996</v>
+      </c>
+      <c r="H10">
+        <v>0.4945</v>
+      </c>
+      <c r="I10">
+        <v>0.83230000000000004</v>
+      </c>
+      <c r="J10">
+        <v>0.54710000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C14" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>